--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/Data Sheet_Atrazine_GH_2023.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/Data Sheet_Atrazine_GH_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1731" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A55FE4-C08A-446E-8CBF-BB04BD75CB92}"/>
+  <xr:revisionPtr revIDLastSave="1736" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3894700-8B34-4AB3-BAE1-B78521946B51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:K1153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,9 +3966,7 @@
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="4">
-        <v>100</v>
-      </c>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">

--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/Data Sheet_Atrazine_GH_2023.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/Data Sheet_Atrazine_GH_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Atrazine/2023/Atrazine_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1745" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DF4D21-0709-4427-8B30-B85C46D597F4}"/>
+  <xr:revisionPtr revIDLastSave="1748" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE651EF2-D9E0-4458-B95C-7455D3703CAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$1153</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -216,10 +216,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +518,7 @@
   <dimension ref="A1:K1153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,9 +3959,7 @@
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
+      <c r="K98" s="3"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -40893,7 +40887,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{E2FA3E51-8BB8-4A66-AF79-7A2C4E03D3A9}"/>
+  <autoFilter ref="A1:K1153" xr:uid="{E2FA3E51-8BB8-4A66-AF79-7A2C4E03D3A9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
